--- a/biology/Botanique/Eustoma_russellianum/Eustoma_russellianum.xlsx
+++ b/biology/Botanique/Eustoma_russellianum/Eustoma_russellianum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eustoma grandiflorum
 Eustoma grandiflorum est une plante de la famille des Gentianacées très cultivée car ses fleurs sont utilisées en fleurs coupées sous le nom de lisianthus.
@@ -514,9 +526,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est originaire du centre et du sud des États-Unis[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est originaire du centre et du sud des États-Unis
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante annuelle cultivée pour la beauté de ses fleurs.
 Les tiges sont robustes ce qui permet l'utilisation en fleurs coupées.
@@ -579,9 +595,11 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont les sélectionneurs japonais qui ont effectué de nombreux croisements et créé de nouvelles variétés à tel point qu'au Danemark les lisianthus portent le nom de « rose japonaise »[3]. Ils ont obtenu des coloris variés ainsi que des fleurs bicolores, blanc et rose ou bleu et blanc.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les sélectionneurs japonais qui ont effectué de nombreux croisements et créé de nouvelles variétés à tel point qu'au Danemark les lisianthus portent le nom de « rose japonaise ». Ils ont obtenu des coloris variés ainsi que des fleurs bicolores, blanc et rose ou bleu et blanc.
 </t>
         </is>
       </c>
